--- a/konig-spreadsheet/src/test/resources/analytics-model.xlsx
+++ b/konig-spreadsheet/src/test/resources/analytics-model.xlsx
@@ -17,43 +17,118 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="225">
   <si>
+    <t>Ontology Name</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
     <t>Individual Name</t>
   </si>
   <si>
     <t>Class Name</t>
   </si>
   <si>
-    <t>Ontology Name</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
     <t>Namespace URI</t>
   </si>
   <si>
+    <t>Prefix</t>
+  </si>
+  <si>
     <t>Class Id</t>
   </si>
   <si>
-    <t>Prefix</t>
-  </si>
-  <si>
     <t>Subclass Of</t>
   </si>
   <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Schema.org</t>
+  </si>
+  <si>
+    <t>The base class for all kinds of actions that have either already occurred, are in the process of occurring, or may occur in the future.</t>
+  </si>
+  <si>
+    <t>An ontology developed by Google, Yahoo!, Microsoft and others to describe people, places, and things commonly found on the web.</t>
+  </si>
+  <si>
+    <t>schema:Action</t>
+  </si>
+  <si>
+    <t>TradeAction</t>
+  </si>
+  <si>
+    <t>The act of participating in an exchange of goods and services for monetary compensation. An agent trades an object, product or service with a participant in exchange for a one time or periodic payment.</t>
+  </si>
+  <si>
+    <t>http://schema.org/</t>
+  </si>
+  <si>
+    <t>schema:TradeAction</t>
+  </si>
+  <si>
+    <t>schema</t>
+  </si>
+  <si>
+    <t>BuyAction</t>
+  </si>
+  <si>
+    <t>The act of giving money to a seller in exchange for goods or services rendered. An agent buys an object, product, or service from a seller for a price. Reciprocal of SellAction.</t>
+  </si>
+  <si>
+    <t>schema:SellAction</t>
+  </si>
+  <si>
+    <t>Person</t>
+  </si>
+  <si>
+    <t>The class of all individual people.</t>
+  </si>
+  <si>
+    <t>schema:Person</t>
+  </si>
+  <si>
+    <t>Place</t>
+  </si>
+  <si>
+    <t>The class of all places that have a somewhat fixed, physical extension.</t>
+  </si>
+  <si>
+    <t>schema:Place</t>
+  </si>
+  <si>
+    <t>owl:NamedIndividual</t>
+  </si>
+  <si>
+    <t>Landform</t>
+  </si>
+  <si>
     <t>Individual Id</t>
   </si>
   <si>
+    <t>A landform or physical feature. Landform elements include mountains, plains, lakes, rivers, seascape and oceanic waterbody interface features such as bays, peninsulas, seas and so forth, including sub-aqueous terrain features such as submersed mountain ranges, volcanoes, and the great ocean basins.</t>
+  </si>
+  <si>
     <t>Individual Type</t>
   </si>
   <si>
+    <t>schema:Landform</t>
+  </si>
+  <si>
+    <t>Continent</t>
+  </si>
+  <si>
+    <t>The class of all continents (Africa, Antartica, Asia, Europe, North America, Oceania, or South America)</t>
+  </si>
+  <si>
+    <t>schema:Continent</t>
+  </si>
+  <si>
     <t>Amazon</t>
   </si>
   <si>
-    <t>Action</t>
-  </si>
-  <si>
-    <t>Schema.org</t>
+    <t>Administrative Area</t>
   </si>
   <si>
     <t>The Amazon online shopping site</t>
@@ -62,12 +137,15 @@
     <t>app:AmazonStore</t>
   </si>
   <si>
-    <t>The base class for all kinds of actions that have either already occurred, are in the process of occurring, or may occur in the future.</t>
+    <t>A generic administrative area.  This is the base class for more specific types like City, State, Country, etc.</t>
   </si>
   <si>
     <t>schema:WebApplication</t>
   </si>
   <si>
+    <t>schema:AdministrativeArea</t>
+  </si>
+  <si>
     <t>Apple Store</t>
   </si>
   <si>
@@ -77,31 +155,67 @@
     <t>app:AppleStore</t>
   </si>
   <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>A city or town.</t>
+  </si>
+  <si>
     <t>Google Store</t>
   </si>
   <si>
+    <t>schema:City</t>
+  </si>
+  <si>
     <t>The Google online store</t>
   </si>
   <si>
     <t>app:GoogleStore</t>
   </si>
   <si>
+    <t>State</t>
+  </si>
+  <si>
     <t>Day</t>
   </si>
   <si>
     <t>The unit of time measured in days</t>
   </si>
   <si>
+    <t>A state or province within a country</t>
+  </si>
+  <si>
+    <t>Konig Core Ontology</t>
+  </si>
+  <si>
     <t>konig:Day</t>
   </si>
   <si>
-    <t>schema:Action</t>
+    <t>schema:State</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>A country</t>
+  </si>
+  <si>
+    <t>schema:Country</t>
+  </si>
+  <si>
+    <t>Creative Work</t>
+  </si>
+  <si>
+    <t>The most generic kind of creative work, including books, movies, photographs, software programs, etc.</t>
+  </si>
+  <si>
+    <t>schema:CreativeWork</t>
   </si>
   <si>
     <t>konig:TimeUnit</t>
   </si>
   <si>
-    <t>TradeAction</t>
+    <t>Software Application</t>
   </si>
   <si>
     <t>Month</t>
@@ -113,7 +227,10 @@
     <t>konig:Month</t>
   </si>
   <si>
-    <t>The act of participating in an exchange of goods and services for monetary compensation. An agent trades an object, product or service with a participant in exchange for a one time or periodic payment.</t>
+    <t>The most generic kind of software application incuding mobile apps, web apps, video games etc.</t>
+  </si>
+  <si>
+    <t>schema:SoftwareApplication</t>
   </si>
   <si>
     <t>Year</t>
@@ -122,135 +239,18 @@
     <t>The unit of time measured in years</t>
   </si>
   <si>
+    <t>A vocabulary for enriched semantic models that enable ontology-based engineering solutions.</t>
+  </si>
+  <si>
     <t>konig:Year</t>
   </si>
   <si>
-    <t>An ontology developed by Google, Yahoo!, Microsoft and others to describe people, places, and things commonly found on the web.</t>
-  </si>
-  <si>
-    <t>schema:TradeAction</t>
-  </si>
-  <si>
-    <t>BuyAction</t>
-  </si>
-  <si>
-    <t>The act of giving money to a seller in exchange for goods or services rendered. An agent buys an object, product, or service from a seller for a price. Reciprocal of SellAction.</t>
-  </si>
-  <si>
-    <t>schema:SellAction</t>
-  </si>
-  <si>
-    <t>Person</t>
-  </si>
-  <si>
-    <t>The class of all individual people.</t>
-  </si>
-  <si>
-    <t>http://schema.org/</t>
-  </si>
-  <si>
-    <t>schema:Person</t>
-  </si>
-  <si>
-    <t>Place</t>
-  </si>
-  <si>
-    <t>The class of all places that have a somewhat fixed, physical extension.</t>
-  </si>
-  <si>
-    <t>schema:Place</t>
-  </si>
-  <si>
-    <t>owl:NamedIndividual</t>
-  </si>
-  <si>
-    <t>schema</t>
-  </si>
-  <si>
-    <t>Landform</t>
-  </si>
-  <si>
-    <t>A landform or physical feature. Landform elements include mountains, plains, lakes, rivers, seascape and oceanic waterbody interface features such as bays, peninsulas, seas and so forth, including sub-aqueous terrain features such as submersed mountain ranges, volcanoes, and the great ocean basins.</t>
-  </si>
-  <si>
-    <t>schema:Landform</t>
-  </si>
-  <si>
-    <t>Continent</t>
-  </si>
-  <si>
-    <t>The class of all continents (Africa, Antartica, Asia, Europe, North America, Oceania, or South America)</t>
-  </si>
-  <si>
-    <t>schema:Continent</t>
-  </si>
-  <si>
-    <t>Administrative Area</t>
-  </si>
-  <si>
-    <t>A generic administrative area.  This is the base class for more specific types like City, State, Country, etc.</t>
-  </si>
-  <si>
-    <t>schema:AdministrativeArea</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>A city or town.</t>
-  </si>
-  <si>
-    <t>schema:City</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>Konig Core Ontology</t>
-  </si>
-  <si>
-    <t>A state or province within a country</t>
-  </si>
-  <si>
-    <t>schema:State</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>A country</t>
-  </si>
-  <si>
-    <t>schema:Country</t>
-  </si>
-  <si>
-    <t>Creative Work</t>
-  </si>
-  <si>
-    <t>The most generic kind of creative work, including books, movies, photographs, software programs, etc.</t>
-  </si>
-  <si>
-    <t>schema:CreativeWork</t>
-  </si>
-  <si>
-    <t>Software Application</t>
-  </si>
-  <si>
-    <t>The most generic kind of software application incuding mobile apps, web apps, video games etc.</t>
-  </si>
-  <si>
-    <t>schema:SoftwareApplication</t>
-  </si>
-  <si>
     <t>Web Application</t>
   </si>
   <si>
     <t>The class of all web applications.</t>
   </si>
   <si>
-    <t>A vocabulary for enriched semantic models that enable ontology-based engineering solutions.</t>
-  </si>
-  <si>
     <t>Time Interval</t>
   </si>
   <si>
@@ -263,12 +263,12 @@
     <t>Time Unit</t>
   </si>
   <si>
+    <t>http://www.konig.io/ns/core/</t>
+  </si>
+  <si>
     <t>The class of all time units.</t>
   </si>
   <si>
-    <t>http://www.konig.io/ns/core/</t>
-  </si>
-  <si>
     <t>konig</t>
   </si>
   <si>
@@ -341,9 +341,21 @@
     <t>http://sws.geonames.org/</t>
   </si>
   <si>
+    <t>place</t>
+  </si>
+  <si>
+    <t>Software Applications</t>
+  </si>
+  <si>
+    <t>A controlled vocabulary for software applications, including web properties like the Amazon Online Store or Google Online Store.</t>
+  </si>
+  <si>
     <t>Shape Id</t>
   </si>
   <si>
+    <t>http://example.com/ns/app/</t>
+  </si>
+  <si>
     <t>Scope Class</t>
   </si>
   <si>
@@ -353,18 +365,6 @@
     <t>Aggregation Of</t>
   </si>
   <si>
-    <t>place</t>
-  </si>
-  <si>
-    <t>Software Applications</t>
-  </si>
-  <si>
-    <t>A controlled vocabulary for software applications, including web properties like the Amazon Online Store or Google Online Store.</t>
-  </si>
-  <si>
-    <t>http://example.com/ns/app/</t>
-  </si>
-  <si>
     <t>Roll-up By</t>
   </si>
   <si>
@@ -380,75 +380,75 @@
     <t>schema1:AdministrativeAreaShape</t>
   </si>
   <si>
+    <t>schema1:PersonShape</t>
+  </si>
+  <si>
+    <t>schema1:PlaceShape</t>
+  </si>
+  <si>
+    <t>fact1:SalesByCityShape</t>
+  </si>
+  <si>
+    <t>konig:Fact</t>
+  </si>
+  <si>
     <t>app</t>
   </si>
   <si>
-    <t>schema1:PersonShape</t>
+    <t>fact1:SalesByStateShape</t>
   </si>
   <si>
     <t>Schema.org Shapes (version 1)</t>
   </si>
   <si>
+    <t>alias:state</t>
+  </si>
+  <si>
     <t>A namespace for data shape instances (version 1)</t>
   </si>
   <si>
-    <t>schema1:PlaceShape</t>
+    <t>fact1:SalesByCountryShape</t>
   </si>
   <si>
     <t>http://example.com/shapes/v1/schema/</t>
   </si>
   <si>
-    <t>fact1:SalesByCityShape</t>
+    <t>alias:country</t>
+  </si>
+  <si>
+    <t>fact1:SalesByContinentShape</t>
+  </si>
+  <si>
+    <t>alias:continent</t>
+  </si>
+  <si>
+    <t>konig1:WeekMonthYearShape</t>
   </si>
   <si>
     <t>schema1</t>
   </si>
   <si>
-    <t>konig:Fact</t>
-  </si>
-  <si>
     <t>Schema.org Shapes (version 2)</t>
   </si>
   <si>
-    <t>fact1:SalesByStateShape</t>
-  </si>
-  <si>
     <t>A namespace for data shape instances (version 2)</t>
   </si>
   <si>
     <t>http://example.com/shapes/v2/schema/</t>
   </si>
   <si>
-    <t>alias:state</t>
-  </si>
-  <si>
-    <t>fact1:SalesByCountryShape</t>
-  </si>
-  <si>
     <t>schema2</t>
   </si>
   <si>
-    <t>alias:country</t>
-  </si>
-  <si>
     <t>Schema.org Shapes (version 3)</t>
   </si>
   <si>
-    <t>fact1:SalesByContinentShape</t>
-  </si>
-  <si>
     <t>A namespace for data shape instances (version 3)</t>
   </si>
   <si>
-    <t>alias:continent</t>
-  </si>
-  <si>
     <t>http://example.com/shapes/v3/schema/</t>
   </si>
   <si>
-    <t>konig1:WeekMonthYearShape</t>
-  </si>
-  <si>
     <t>schema3</t>
   </si>
   <si>
@@ -650,19 +650,19 @@
     <t>konig:attribute</t>
   </si>
   <si>
-    <t>/city/containedInPlace</t>
+    <t>city.containedInPlace</t>
   </si>
   <si>
     <t>The country attribute</t>
   </si>
   <si>
-    <t>/state/containedInPlace</t>
+    <t>state.containedInPlace</t>
   </si>
   <si>
     <t>The continent attribute</t>
   </si>
   <si>
-    <t>/country/containedInPlace</t>
+    <t>country.containedInPlace</t>
   </si>
   <si>
     <t>konig:timeInterval</t>
@@ -671,7 +671,7 @@
     <t>The time interval covered by the fact</t>
   </si>
   <si>
-    <t>/schema:endTime</t>
+    <t>.schema:endTime</t>
   </si>
   <si>
     <t>konig:intervalStart</t>
@@ -756,74 +756,69 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="30">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment/>
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
@@ -881,6 +876,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -895,53 +893,53 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>43</v>
+      <c r="A2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
@@ -968,13 +966,13 @@
     </row>
     <row r="3">
       <c r="A3" s="12" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>84</v>
@@ -1006,10 +1004,10 @@
       <c r="A4" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="6" t="s">
         <v>87</v>
       </c>
       <c r="D4" s="11" t="s">
@@ -1042,10 +1040,10 @@
       <c r="A5" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>91</v>
       </c>
       <c r="D5" s="11" t="s">
@@ -1078,10 +1076,10 @@
       <c r="A6" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>95</v>
       </c>
       <c r="D6" s="11" t="s">
@@ -1114,10 +1112,10 @@
       <c r="A7" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>99</v>
       </c>
       <c r="D7" s="11" t="s">
@@ -1150,10 +1148,10 @@
       <c r="A8" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>103</v>
       </c>
       <c r="D8" s="11" t="s">
@@ -1183,7 +1181,7 @@
       <c r="Z8" s="11"/>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>105</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -1192,68 +1190,68 @@
       <c r="C9" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>121</v>
+      <c r="D10" s="5" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="6" t="s">
-        <v>123</v>
+      <c r="A11" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>128</v>
+        <v>131</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="s">
-        <v>130</v>
+      <c r="A12" s="5" t="s">
+        <v>137</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="s">
-        <v>138</v>
+      <c r="A13" s="5" t="s">
+        <v>141</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="D13" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>145</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -1262,12 +1260,12 @@
       <c r="C14" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>149</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -1276,12 +1274,12 @@
       <c r="C15" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>153</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -1290,12 +1288,12 @@
       <c r="C16" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>157</v>
       </c>
       <c r="B17" s="7" t="s">
@@ -1304,7 +1302,7 @@
       <c r="C17" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>160</v>
       </c>
     </row>
@@ -4205,6 +4203,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4220,251 +4221,251 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="s">
-        <v>11</v>
+      <c r="A2" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="6" t="s">
+      <c r="D6" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D7" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="B9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="6" t="s">
+    <row r="10">
+      <c r="A10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>16</v>
+      <c r="D15" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>78</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>81</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C17" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="18">
@@ -7444,6 +7445,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7456,123 +7460,123 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>16</v>
+      <c r="A2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>16</v>
+      <c r="A3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>16</v>
+      <c r="A4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>27</v>
+      <c r="A6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>27</v>
+      <c r="A7" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>27</v>
+      <c r="A8" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -7582,6 +7586,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7595,138 +7602,138 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>110</v>
+      <c r="A1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F1" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>58</v>
+      <c r="C3" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>47</v>
+      <c r="C5" s="5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6" t="s">
+      <c r="A6" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F7" s="6" t="s">
+      <c r="A7" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="6" t="s">
+    <row r="10">
+      <c r="A10" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>80</v>
       </c>
     </row>
@@ -7737,6 +7744,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -7758,25 +7768,25 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>163</v>
       </c>
       <c r="F1" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>165</v>
       </c>
       <c r="H1" s="17" t="s">
@@ -7794,78 +7804,78 @@
       <c r="L1" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>171</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="E2" s="6">
+      <c r="D2" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="5">
         <v>1.0</v>
       </c>
       <c r="F2" s="20">
         <v>1.0</v>
       </c>
-      <c r="G2" s="6"/>
+      <c r="G2" s="5"/>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>173</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>1.0</v>
       </c>
       <c r="F3" s="20">
         <v>1.0</v>
       </c>
-      <c r="G3" s="6"/>
+      <c r="G3" s="5"/>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>176</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>1.0</v>
       </c>
       <c r="F4" s="20">
@@ -7873,19 +7883,19 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>179</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>1.0</v>
       </c>
       <c r="F5" s="20">
@@ -7893,19 +7903,19 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>182</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E6" s="6">
+      <c r="D6" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" s="5">
         <v>1.0</v>
       </c>
       <c r="F6" s="20" t="s">
@@ -7913,31 +7923,31 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>185</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>1.0</v>
       </c>
       <c r="F7" s="20">
         <v>1.0</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>16</v>
+      <c r="G7" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B8" s="21" t="s">
         <v>188</v>
@@ -8060,7 +8070,7 @@
     </row>
     <row r="11">
       <c r="A11" s="21" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B11" s="21" t="s">
         <v>191</v>
@@ -8101,7 +8111,7 @@
     </row>
     <row r="12">
       <c r="A12" s="21" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B12" s="21" t="s">
         <v>196</v>
@@ -8142,7 +8152,7 @@
     </row>
     <row r="13">
       <c r="A13" s="21" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B13" s="21" t="s">
         <v>193</v>
@@ -8183,7 +8193,7 @@
     </row>
     <row r="14">
       <c r="A14" s="21" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B14" s="21" t="s">
         <v>199</v>
@@ -8201,7 +8211,7 @@
         <v>1.0</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="H14" s="24"/>
       <c r="I14" s="24"/>
@@ -8225,165 +8235,165 @@
       <c r="AA14" s="24"/>
     </row>
     <row r="15">
-      <c r="A15" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>201</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <v>1.0</v>
       </c>
       <c r="F15" s="20">
         <v>1.0</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="5" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="B16" s="6" t="s">
+      <c r="A16" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>205</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E16" s="6">
+      <c r="D16" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E16" s="5">
         <v>1.0</v>
       </c>
       <c r="F16" s="20">
         <v>1.0</v>
       </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6" t="s">
+      <c r="G16" s="5"/>
+      <c r="H16" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I16" s="5" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>134</v>
+      <c r="A17" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>128</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E17" s="6">
+      <c r="D17" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E17" s="5">
         <v>1.0</v>
       </c>
       <c r="F17" s="20">
         <v>1.0</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="I17" s="6"/>
-      <c r="L17" s="6" t="s">
+      <c r="I17" s="5"/>
+      <c r="L17" s="5" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>137</v>
+      <c r="A18" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>132</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E18" s="6">
+      <c r="D18" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E18" s="5">
         <v>1.0</v>
       </c>
       <c r="F18" s="20">
         <v>1.0</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="H18" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="I18" s="6"/>
-      <c r="L18" s="6" t="s">
+      <c r="I18" s="5"/>
+      <c r="L18" s="5" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>141</v>
+      <c r="A19" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>134</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E19" s="6">
+      <c r="D19" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E19" s="5">
         <v>1.0</v>
       </c>
       <c r="F19" s="20">
         <v>1.0</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="H19" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="I19" s="6"/>
-      <c r="L19" s="6" t="s">
+      <c r="I19" s="5"/>
+      <c r="L19" s="5" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="B20" s="6" t="s">
+      <c r="A20" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>216</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="E20" s="6">
+      <c r="D20" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E20" s="5">
         <v>1.0</v>
       </c>
       <c r="F20" s="20">
         <v>1.0</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H20" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="J20" s="6" t="s">
+      <c r="J20" s="5" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="21" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B21" s="21" t="s">
         <v>219</v>
@@ -8426,7 +8436,7 @@
     </row>
     <row r="22">
       <c r="A22" s="21" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B22" s="21" t="s">
         <v>222</v>
@@ -8444,7 +8454,7 @@
         <v>1.0</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="H22" s="24"/>
       <c r="I22" s="24"/>
@@ -8470,53 +8480,53 @@
       <c r="AA22" s="24"/>
     </row>
     <row r="23">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
       <c r="C23" s="7"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
       <c r="F23" s="20"/>
-      <c r="H23" s="6"/>
+      <c r="H23" s="5"/>
     </row>
     <row r="24">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
       <c r="C24" s="7"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
       <c r="F24" s="20"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
     </row>
     <row r="25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
       <c r="C25" s="7"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
       <c r="F25" s="20"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
     </row>
     <row r="26">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
       <c r="C26" s="7"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
       <c r="F26" s="20"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
     </row>
     <row r="27">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
       <c r="C27" s="7"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
       <c r="F27" s="20"/>
-      <c r="H27" s="6"/>
-      <c r="J27" s="6"/>
+      <c r="H27" s="5"/>
+      <c r="J27" s="5"/>
     </row>
     <row r="28">
       <c r="C28" s="14"/>
